--- a/数据整理/stocks/其他/SHEL-壳牌公共有限公司.xlsx
+++ b/数据整理/stocks/其他/SHEL-壳牌公共有限公司.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,217 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/SHEL-壳牌公共有限公司.xlsx
+++ b/数据整理/stocks/其他/SHEL-壳牌公共有限公司.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,167 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1129</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010343</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010344</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -830,64 +728,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/SHEL-壳牌公共有限公司.xlsx
+++ b/数据整理/stocks/其他/SHEL-壳牌公共有限公司.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -576,31 +593,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
+          <t>华安标普全球石油指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1013</t>
+          <t>0.1375</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -609,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014982</t>
+          <t>010343</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数（QDII-LOF）C</t>
+          <t>华宝英国富时100指数（QDII）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1013</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -647,36 +664,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010343</t>
+          <t>014982</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）A</t>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0169</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -695,26 +712,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -723,6 +740,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/SHEL-壳牌公共有限公司.xlsx
+++ b/数据整理/stocks/其他/SHEL-壳牌公共有限公司.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -598,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1375</t>
+          <t>0.1568</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010343</t>
+          <t>014982</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）A</t>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0201</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -664,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014982</t>
+          <t>010343</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数（QDII-LOF）C</t>
+          <t>华宝英国富时100指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>94.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -707,7 +724,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）C</t>
+          <t>华宝英国富时100指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -717,21 +734,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>94.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -801,31 +818,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
+          <t>华安标普全球石油指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1013</t>
+          <t>0.1375</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -834,36 +851,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014982</t>
+          <t>010343</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数（QDII-LOF）C</t>
+          <t>华宝英国富时100指数（QDII）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1013</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -872,36 +889,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010343</t>
+          <t>014982</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）A</t>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0169</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -920,26 +937,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -948,6 +965,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
